--- a/ML Unit Team_Yellow/user4Datasets.xlsx
+++ b/ML Unit Team_Yellow/user4Datasets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panla\OneDrive\Documents\HRW\Master 2 Semester\Moderne Verfahren der Mensch Technik Interaktion\Projekt\MVMTI\ProjektMMTI\ML Unit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panla\OneDrive\Documents\HRW\Master 2 Semester\Moderne Verfahren der Mensch Technik Interaktion\Projekt\ReactUndFlask\ML Unit Team_Yellow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48385CCE-58CB-4611-B6FD-A57792433A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA7A3E2-EB2E-448C-B5B2-733938B9EEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E074ED09-7A38-4BC5-ABB6-E91DF12561B9}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
